--- a/config/optimization_engine/ml_models/process_a-example-input-model.xlsx
+++ b/config/optimization_engine/ml_models/process_a-example-input-model.xlsx
@@ -460,16 +460,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>8.036720768991145</v>
+        <v>80.38067699035999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.865700588860358</v>
+        <v>18.85621941051061</v>
       </c>
       <c r="D2" t="n">
-        <v>8.925589984899778</v>
+        <v>89.25706332453439</v>
       </c>
       <c r="E2" t="n">
-        <v>5.393422419156507</v>
+        <v>54.08160640019621</v>
       </c>
     </row>
   </sheetData>

--- a/config/optimization_engine/ml_models/process_a-example-input-model.xlsx
+++ b/config/optimization_engine/ml_models/process_a-example-input-model.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>O3</t>
         </is>
       </c>
     </row>

--- a/config/optimization_engine/ml_models/process_a-example-input-model.xlsx
+++ b/config/optimization_engine/ml_models/process_a-example-input-model.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
